--- a/media/files/2017/04/24/424.xlsx
+++ b/media/files/2017/04/24/424.xlsx
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:M83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1193,13 +1193,15 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="21">
+        <v>10</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="4">
-        <f>SUM(C4:L4)</f>
-        <v>50</v>
+        <f t="shared" ref="M4:M35" si="0">SUM(C4:L4)</f>
+        <v>60</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
@@ -1219,13 +1221,15 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21">
+        <v>10</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="4">
-        <f>SUM(C5:L5)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
@@ -1250,7 +1254,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="4">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P6" s="7"/>
@@ -1271,13 +1275,15 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <v>10</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="4">
-        <f>SUM(C7:L7)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
@@ -1302,7 +1308,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="4">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P8" s="7"/>
@@ -1328,7 +1334,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="4">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P9" s="7"/>
@@ -1349,13 +1355,15 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <v>10</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="4">
-        <f>SUM(C10:L10)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
@@ -1380,7 +1388,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="4">
-        <f>SUM(C11:L11)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P11" s="7"/>
@@ -1401,13 +1409,15 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <v>10</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="4">
-        <f>SUM(C12:L12)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
@@ -1432,7 +1442,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="4">
-        <f>SUM(C13:L13)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P13" s="7"/>
@@ -1458,7 +1468,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="4">
-        <f>SUM(C14:L14)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P14" s="7"/>
@@ -1479,13 +1489,15 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <v>10</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="4">
-        <f>SUM(C15:L15)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
@@ -1505,13 +1517,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <v>10</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="4">
-        <f>SUM(C16:L16)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
@@ -1531,13 +1545,15 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <v>10</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="4">
-        <f>SUM(C17:L17)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
@@ -1557,13 +1573,15 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <v>10</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="4">
-        <f>SUM(C18:L18)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
@@ -1588,7 +1606,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="4">
-        <f>SUM(C19:L19)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P19" s="7"/>
@@ -1614,7 +1632,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="4">
-        <f>SUM(C20:L20)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P20" s="7"/>
@@ -1635,13 +1653,15 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="21">
+        <v>10</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="4">
-        <f>SUM(C21:L21)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
@@ -1666,7 +1686,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="4">
-        <f>SUM(C22:L22)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P22" s="7"/>
@@ -1687,13 +1707,15 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="21">
+        <v>10</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="4">
-        <f>SUM(C23:L23)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
@@ -1718,7 +1740,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="4">
-        <f>SUM(C24:L24)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P24" s="7"/>
@@ -1739,13 +1761,15 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="21"/>
+      <c r="I25" s="21">
+        <v>10</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="4">
-        <f>SUM(C25:L25)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
@@ -1770,7 +1794,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="4">
-        <f>SUM(C26:L26)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P26" s="7"/>
@@ -1796,7 +1820,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="4">
-        <f>SUM(C27:L27)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P27" s="7"/>
@@ -1817,13 +1841,15 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="21"/>
+      <c r="I28" s="21">
+        <v>10</v>
+      </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
-        <f>SUM(C28:L28)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
@@ -1843,13 +1869,15 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="21"/>
+      <c r="I29" s="21">
+        <v>10</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="4">
-        <f>SUM(C29:L29)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="8"/>
@@ -1874,7 +1902,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="4">
-        <f>SUM(C30:L30)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P30" s="7"/>
@@ -1895,13 +1923,15 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="21"/>
+      <c r="I31" s="21">
+        <v>10</v>
+      </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="4">
-        <f>SUM(C31:L31)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
@@ -1926,7 +1956,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
-        <f>SUM(C32:L32)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P32" s="7"/>
@@ -1947,13 +1977,15 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="21"/>
+      <c r="I33" s="21">
+        <v>10</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="4">
-        <f>SUM(C33:L33)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="8"/>
@@ -1973,13 +2005,15 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="21"/>
+      <c r="I34" s="21">
+        <v>10</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="4">
-        <f>SUM(C34:L34)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="8"/>
@@ -1999,13 +2033,15 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="21"/>
+      <c r="I35" s="21">
+        <v>10</v>
+      </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="4">
-        <f>SUM(C35:L35)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="8"/>
@@ -2030,7 +2066,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="4">
-        <f>SUM(C36:L36)</f>
+        <f t="shared" ref="M36:M67" si="1">SUM(C36:L36)</f>
         <v>50</v>
       </c>
       <c r="P36" s="7"/>
@@ -2051,13 +2087,15 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="21"/>
+      <c r="I37" s="21">
+        <v>10</v>
+      </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="4">
-        <f>SUM(C37:L37)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="8"/>
@@ -2082,7 +2120,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="4">
-        <f>SUM(C38:L38)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P38" s="7"/>
@@ -2108,7 +2146,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="4">
-        <f>SUM(C39:L39)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P39" s="7"/>
@@ -2129,13 +2167,15 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="21"/>
+      <c r="I40" s="21">
+        <v>10</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="4">
-        <f>SUM(C40:L40)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="8"/>
@@ -2155,13 +2195,15 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="21"/>
+      <c r="I41" s="21">
+        <v>10</v>
+      </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="4">
-        <f>SUM(C41:L41)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2184,7 +2226,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="4">
-        <f>SUM(C42:L42)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="P42" s="7"/>
@@ -2205,13 +2247,15 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="21"/>
+      <c r="I43" s="21">
+        <v>10</v>
+      </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
-        <f>SUM(C43:L43)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2229,13 +2273,15 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="21"/>
+      <c r="I44" s="21">
+        <v>10</v>
+      </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="4">
-        <f>SUM(C44:L44)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2253,13 +2299,15 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="21"/>
+      <c r="I45" s="21">
+        <v>10</v>
+      </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="4">
-        <f>SUM(C45:L45)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2277,13 +2325,15 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="21"/>
+      <c r="I46" s="21">
+        <v>10</v>
+      </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="4">
-        <f>SUM(C46:L46)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2306,7 +2356,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="4">
-        <f>SUM(C47:L47)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -2325,13 +2375,15 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="21"/>
+      <c r="I48" s="21">
+        <v>5</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
-        <f>SUM(C48:L48)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2354,7 +2406,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="4">
-        <f>SUM(C49:L49)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2373,13 +2425,15 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="21"/>
+      <c r="I50" s="21">
+        <v>10</v>
+      </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="4">
-        <f>SUM(C50:L50)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="8"/>
@@ -2404,7 +2458,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="4">
-        <f>SUM(C51:L51)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2423,13 +2477,15 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="21"/>
+      <c r="I52" s="21">
+        <v>5</v>
+      </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="4">
-        <f>SUM(C52:L52)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="8"/>
@@ -2454,7 +2510,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="4">
-        <f>SUM(C53:L53)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="P53" s="7"/>
@@ -2475,13 +2531,15 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="21"/>
+      <c r="I54" s="21">
+        <v>10</v>
+      </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="4">
-        <f>SUM(C54:L54)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="8"/>
@@ -2501,13 +2559,15 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="21"/>
+      <c r="I55" s="21">
+        <v>10</v>
+      </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="4">
-        <f>SUM(C55:L55)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="8"/>
@@ -2527,13 +2587,15 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="21"/>
+      <c r="I56" s="21">
+        <v>5</v>
+      </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="4">
-        <f>SUM(C56:L56)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="8"/>
@@ -2553,13 +2615,15 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="21"/>
+      <c r="I57" s="21">
+        <v>10</v>
+      </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="4">
-        <f>SUM(C57:L57)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="8"/>
@@ -2579,13 +2643,15 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="21"/>
+      <c r="I58" s="21">
+        <v>10</v>
+      </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="4">
-        <f>SUM(C58:L58)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="8"/>
@@ -2605,13 +2671,15 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="21"/>
+      <c r="I59" s="21">
+        <v>5</v>
+      </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="4">
-        <f>SUM(C59:L59)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="8"/>
@@ -2636,7 +2704,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="4">
-        <f>SUM(C60:L60)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="P60" s="7"/>
@@ -2657,13 +2725,15 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="21"/>
+      <c r="I61" s="21">
+        <v>10</v>
+      </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="4">
-        <f>SUM(C61:L61)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="8"/>
@@ -2683,13 +2753,15 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="21"/>
+      <c r="I62" s="21">
+        <v>5</v>
+      </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="4">
-        <f>SUM(C62:L62)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="8"/>
@@ -2714,7 +2786,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="4">
-        <f>SUM(C63:L63)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="P63" s="7"/>
@@ -2735,13 +2807,15 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="21"/>
+      <c r="I64" s="21">
+        <v>5</v>
+      </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="4">
-        <f>SUM(C64:L64)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="8"/>
@@ -2761,13 +2835,15 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="21"/>
+      <c r="I65" s="21">
+        <v>10</v>
+      </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="4">
-        <f>SUM(C65:L65)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2790,7 +2866,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="4">
-        <f>SUM(C66:L66)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P66" s="7"/>
@@ -2811,13 +2887,15 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="21"/>
+      <c r="I67" s="21">
+        <v>10</v>
+      </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="4">
-        <f>SUM(C67:L67)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="8"/>
@@ -2842,7 +2920,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="4">
-        <f>SUM(C68:L68)</f>
+        <f t="shared" ref="M68:M99" si="2">SUM(C68:L68)</f>
         <v>10</v>
       </c>
       <c r="P68" s="7"/>
@@ -2863,13 +2941,15 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="21"/>
+      <c r="I69" s="21">
+        <v>10</v>
+      </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="4">
-        <f>SUM(C69:L69)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="8"/>
@@ -2894,7 +2974,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="4">
-        <f>SUM(C70:L70)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P70" s="7"/>
@@ -2920,7 +3000,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="4">
-        <f>SUM(C71:L71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P71" s="7"/>
@@ -2946,7 +3026,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="4">
-        <f>SUM(C72:L72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P72" s="7"/>
@@ -2972,7 +3052,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="4">
-        <f>SUM(C73:L73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P73" s="7"/>
@@ -2998,7 +3078,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="4">
-        <f>SUM(C74:L74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P74" s="7"/>
@@ -3024,7 +3104,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="4">
-        <f>SUM(C75:L75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P75" s="7"/>
@@ -3045,13 +3125,15 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="21"/>
+      <c r="I76" s="21">
+        <v>10</v>
+      </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="4">
-        <f>SUM(C76:L76)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="P76" s="7"/>
       <c r="Q76" s="8"/>
@@ -3076,7 +3158,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="4">
-        <f>SUM(C77:L77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P77" s="7"/>
@@ -3102,7 +3184,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="4">
-        <f>SUM(C78:L78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3126,7 +3208,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="4">
-        <f>SUM(C79:L79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P79" s="7"/>
@@ -3152,7 +3234,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="4">
-        <f>SUM(C80:L80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P80" s="7"/>
@@ -3178,7 +3260,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="4">
-        <f>SUM(C81:L81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P81" s="7"/>
@@ -3204,7 +3286,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="4">
-        <f>SUM(C82:L82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P82" s="7"/>
@@ -3230,7 +3312,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="4">
-        <f>SUM(C83:L83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P83" s="7"/>

--- a/media/files/2017/04/24/424.xlsx
+++ b/media/files/2017/04/24/424.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\keenking.github.io\media\files\2017\04\24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kkkkk\keenking.github.io\media\files\2017\04\24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="4月24日周日" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月24日周日'!$B$2:$R$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月24日周日'!$B$2:$R$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
   <si>
     <r>
       <rPr>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>扬州牧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>王CY</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -332,10 +328,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>回不到从前了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>一路闪电砍死你</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -445,6 +437,322 @@
   </si>
   <si>
     <t>仲良&lt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7349</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6363</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6194</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5945</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5735</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5521</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5473</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5171</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5028</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5009</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4912</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4879</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4773</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4028</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3812</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3408</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3185</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3174</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3140</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2973</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2957</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2942</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2896</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2883</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2744</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2741</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2679</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2675</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2610</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2553</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2474</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2464</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2339</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2322</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2297</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2265</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2191</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2155</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2077</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1981</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1978</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1850</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1830</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1828</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1748</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1680</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1668</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1579</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1574</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1413</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1278</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1197</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1095</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1066</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1039</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>985</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>984</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>970</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>954</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>865</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>833</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>790</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>735</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>615</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>615</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>570</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>542</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>510</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>335</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>293</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙飞刃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>280</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +764,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0;_ࣿ"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,8 +854,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,8 +895,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -669,13 +991,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,9 +1097,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -1061,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1083,7 +1427,7 @@
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18"/>
       <c r="B1" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1103,34 +1447,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>1</v>
@@ -1142,34 +1486,34 @@
         <v>4</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>2</v>
@@ -1189,9 +1533,15 @@
         <v>50</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="9">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="21">
         <v>10</v>
@@ -1201,7 +1551,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="4">
         <f t="shared" ref="M4:M35" si="0">SUM(C4:L4)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
@@ -1217,9 +1567,15 @@
         <v>50</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="9">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="21">
         <v>10</v>
@@ -1229,7 +1585,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
@@ -1239,15 +1595,21 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="10">
         <v>50</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="9">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="21"/>
       <c r="J6" s="9"/>
@@ -1255,7 +1617,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
@@ -1265,14 +1627,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="10">
         <v>50</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="9">
+        <v>20</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="21">
@@ -1283,7 +1649,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
@@ -1293,15 +1659,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10">
         <v>50</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="9">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="21"/>
       <c r="J8" s="9"/>
@@ -1309,7 +1681,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
@@ -1325,9 +1697,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="9">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="21"/>
       <c r="J9" s="9"/>
@@ -1335,7 +1713,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
@@ -1345,15 +1723,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="10">
         <v>50</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="9">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="21">
         <v>10</v>
@@ -1363,7 +1747,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
@@ -1379,9 +1763,15 @@
         <v>50</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="9">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="21"/>
       <c r="J11" s="9"/>
@@ -1389,7 +1779,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
@@ -1405,9 +1795,15 @@
         <v>50</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="9">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="21">
         <v>10</v>
@@ -1417,7 +1813,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
@@ -1433,9 +1829,15 @@
         <v>50</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="9">
+        <v>25</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="21"/>
       <c r="J13" s="9"/>
@@ -1443,7 +1845,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
@@ -1453,15 +1855,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="10">
         <v>50</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="9">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="21"/>
       <c r="J14" s="9"/>
@@ -1469,7 +1877,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
@@ -1485,9 +1893,15 @@
         <v>50</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="9">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="21">
         <v>10</v>
@@ -1497,7 +1911,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
@@ -1507,15 +1921,21 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="10">
         <v>50</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="9">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="21">
         <v>10</v>
@@ -1525,7 +1945,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
@@ -1541,9 +1961,15 @@
         <v>50</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="9">
+        <v>15</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="21">
         <v>10</v>
@@ -1553,7 +1979,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
@@ -1569,9 +1995,15 @@
         <v>50</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="9">
+        <v>25</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="21">
         <v>10</v>
@@ -1581,7 +2013,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
@@ -1597,9 +2029,15 @@
         <v>50</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="9">
+        <v>10</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="21"/>
       <c r="J19" s="9"/>
@@ -1607,7 +2045,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
@@ -1623,9 +2061,15 @@
         <v>50</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="E20" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="9">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="21"/>
       <c r="J20" s="9"/>
@@ -1633,7 +2077,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
@@ -1643,15 +2087,21 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="10">
         <v>50</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="9">
+        <v>25</v>
+      </c>
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="21">
         <v>10</v>
@@ -1661,7 +2111,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
@@ -1677,9 +2127,15 @@
         <v>50</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="9">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="21"/>
       <c r="J22" s="9"/>
@@ -1687,7 +2143,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="8"/>
@@ -1703,9 +2159,15 @@
         <v>50</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="9">
+        <v>20</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="21">
         <v>10</v>
@@ -1715,7 +2177,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
@@ -1731,9 +2193,15 @@
         <v>50</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="9">
+        <v>25</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="21"/>
       <c r="J24" s="9"/>
@@ -1741,7 +2209,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
@@ -1757,9 +2225,15 @@
         <v>50</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="9">
+        <v>15</v>
+      </c>
+      <c r="G25" s="9">
+        <v>5</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="21">
         <v>10</v>
@@ -1769,7 +2243,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
@@ -1779,15 +2253,21 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="10">
         <v>50</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="E26" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="9">
+        <v>20</v>
+      </c>
+      <c r="G26" s="9">
+        <v>5</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="21"/>
       <c r="J26" s="9"/>
@@ -1795,7 +2275,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
@@ -1805,14 +2285,18 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="10">
         <v>50</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="9">
+        <v>20</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="21"/>
@@ -1821,7 +2305,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
@@ -1837,8 +2321,12 @@
         <v>50</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="9">
+        <v>25</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="21">
@@ -1849,7 +2337,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
@@ -1865,8 +2353,12 @@
         <v>50</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="9">
+        <v>25</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="21">
@@ -1877,7 +2369,7 @@
       <c r="L29" s="9"/>
       <c r="M29" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="8"/>
@@ -1893,9 +2385,15 @@
         <v>50</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="9">
+        <v>20</v>
+      </c>
+      <c r="G30" s="9">
+        <v>5</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="21"/>
       <c r="J30" s="9"/>
@@ -1903,7 +2401,7 @@
       <c r="L30" s="9"/>
       <c r="M30" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="8"/>
@@ -1919,9 +2417,15 @@
         <v>50</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="9">
+        <v>15</v>
+      </c>
+      <c r="G31" s="9">
+        <v>5</v>
+      </c>
       <c r="H31" s="9"/>
       <c r="I31" s="21">
         <v>10</v>
@@ -1931,7 +2435,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
@@ -1947,8 +2451,12 @@
         <v>50</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="9">
+        <v>25</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="21"/>
@@ -1957,7 +2465,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="8"/>
@@ -1967,15 +2475,21 @@
         <v>30</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="10">
         <v>50</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="E33" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="9">
+        <v>25</v>
+      </c>
+      <c r="G33" s="9">
+        <v>5</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="21">
         <v>10</v>
@@ -1985,7 +2499,7 @@
       <c r="L33" s="9"/>
       <c r="M33" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="8"/>
@@ -1995,15 +2509,21 @@
         <v>31</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="10">
         <v>50</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="9">
+        <v>25</v>
+      </c>
+      <c r="G34" s="9">
+        <v>5</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="21">
         <v>10</v>
@@ -2013,7 +2533,7 @@
       <c r="L34" s="9"/>
       <c r="M34" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="8"/>
@@ -2029,8 +2549,12 @@
         <v>50</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="9">
+        <v>15</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="21">
@@ -2041,7 +2565,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="8"/>
@@ -2057,9 +2581,15 @@
         <v>50</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="E36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="9">
+        <v>15</v>
+      </c>
+      <c r="G36" s="9">
+        <v>5</v>
+      </c>
       <c r="H36" s="9"/>
       <c r="I36" s="21"/>
       <c r="J36" s="9"/>
@@ -2067,7 +2597,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="4">
         <f t="shared" ref="M36:M67" si="1">SUM(C36:L36)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="8"/>
@@ -2077,14 +2607,18 @@
         <v>34</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="10">
         <v>50</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="9"/>
+      <c r="E37" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="9">
+        <v>10</v>
+      </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="21">
@@ -2095,7 +2629,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="8"/>
@@ -2111,8 +2645,12 @@
         <v>50</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="9">
+        <v>10</v>
+      </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="21"/>
@@ -2121,7 +2659,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="8"/>
@@ -2137,8 +2675,12 @@
         <v>50</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="9">
+        <v>10</v>
+      </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="21"/>
@@ -2147,7 +2689,7 @@
       <c r="L39" s="9"/>
       <c r="M39" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="8"/>
@@ -2163,9 +2705,15 @@
         <v>50</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="E40" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="9">
+        <v>25</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5</v>
+      </c>
       <c r="H40" s="9"/>
       <c r="I40" s="21">
         <v>10</v>
@@ -2175,7 +2723,7 @@
       <c r="L40" s="9"/>
       <c r="M40" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="8"/>
@@ -2191,9 +2739,15 @@
         <v>50</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="E41" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="9">
+        <v>10</v>
+      </c>
+      <c r="G41" s="9">
+        <v>5</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="21">
         <v>10</v>
@@ -2203,7 +2757,7 @@
       <c r="L41" s="9"/>
       <c r="M41" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2217,9 +2771,15 @@
         <v>50</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="E42" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="9">
+        <v>25</v>
+      </c>
+      <c r="G42" s="9">
+        <v>5</v>
+      </c>
       <c r="H42" s="9"/>
       <c r="I42" s="21"/>
       <c r="J42" s="9"/>
@@ -2227,7 +2787,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="8"/>
@@ -2243,9 +2803,15 @@
         <v>50</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="E43" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="9">
+        <v>25</v>
+      </c>
+      <c r="G43" s="9">
+        <v>5</v>
+      </c>
       <c r="H43" s="9"/>
       <c r="I43" s="21">
         <v>10</v>
@@ -2255,7 +2821,7 @@
       <c r="L43" s="9"/>
       <c r="M43" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2263,15 +2829,21 @@
         <v>41</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="10">
         <v>50</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="E44" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="9">
+        <v>25</v>
+      </c>
+      <c r="G44" s="9">
+        <v>5</v>
+      </c>
       <c r="H44" s="9"/>
       <c r="I44" s="21">
         <v>10</v>
@@ -2281,7 +2853,7 @@
       <c r="L44" s="9"/>
       <c r="M44" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2289,15 +2861,21 @@
         <v>42</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" s="10">
         <v>50</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="E45" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="9">
+        <v>25</v>
+      </c>
+      <c r="G45" s="9">
+        <v>5</v>
+      </c>
       <c r="H45" s="9"/>
       <c r="I45" s="21">
         <v>10</v>
@@ -2307,7 +2885,7 @@
       <c r="L45" s="9"/>
       <c r="M45" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2315,14 +2893,18 @@
         <v>43</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" s="10">
         <v>50</v>
       </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="9">
+        <v>10</v>
+      </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="21">
@@ -2333,7 +2915,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2341,14 +2923,18 @@
         <v>44</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="10">
         <v>50</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="9">
+        <v>10</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="21"/>
@@ -2357,7 +2943,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2371,8 +2957,12 @@
         <v>30</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="9"/>
+      <c r="E48" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="9">
+        <v>25</v>
+      </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="21">
@@ -2383,7 +2973,7 @@
       <c r="L48" s="9"/>
       <c r="M48" s="4">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2397,9 +2987,15 @@
         <v>30</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="E49" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="9">
+        <v>20</v>
+      </c>
+      <c r="G49" s="9">
+        <v>5</v>
+      </c>
       <c r="H49" s="9"/>
       <c r="I49" s="21"/>
       <c r="J49" s="9"/>
@@ -2407,7 +3003,7 @@
       <c r="L49" s="9"/>
       <c r="M49" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2421,9 +3017,15 @@
         <v>30</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="E50" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="9">
+        <v>10</v>
+      </c>
+      <c r="G50" s="9">
+        <v>5</v>
+      </c>
       <c r="H50" s="9"/>
       <c r="I50" s="21">
         <v>10</v>
@@ -2433,7 +3035,7 @@
       <c r="L50" s="9"/>
       <c r="M50" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="8"/>
@@ -2443,14 +3045,18 @@
         <v>48</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="10">
         <v>30</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="9"/>
+      <c r="E51" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="9">
+        <v>10</v>
+      </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="21"/>
@@ -2459,7 +3065,7 @@
       <c r="L51" s="9"/>
       <c r="M51" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2473,9 +3079,15 @@
         <v>30</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="E52" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="9">
+        <v>20</v>
+      </c>
+      <c r="G52" s="9">
+        <v>5</v>
+      </c>
       <c r="H52" s="9"/>
       <c r="I52" s="21">
         <v>5</v>
@@ -2485,7 +3097,7 @@
       <c r="L52" s="9"/>
       <c r="M52" s="4">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="8"/>
@@ -2501,9 +3113,15 @@
         <v>30</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="E53" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="9">
+        <v>50</v>
+      </c>
+      <c r="G53" s="9">
+        <v>5</v>
+      </c>
       <c r="H53" s="9"/>
       <c r="I53" s="21"/>
       <c r="J53" s="9"/>
@@ -2511,7 +3129,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="8"/>
@@ -2527,8 +3145,12 @@
         <v>30</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="9"/>
+      <c r="E54" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="9">
+        <v>10</v>
+      </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="21">
@@ -2539,7 +3161,7 @@
       <c r="L54" s="9"/>
       <c r="M54" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="8"/>
@@ -2549,15 +3171,21 @@
         <v>52</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="10">
         <v>30</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="E55" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="9">
+        <v>25</v>
+      </c>
+      <c r="G55" s="9">
+        <v>5</v>
+      </c>
       <c r="H55" s="9"/>
       <c r="I55" s="21">
         <v>10</v>
@@ -2567,7 +3195,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="8"/>
@@ -2583,9 +3211,15 @@
         <v>30</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="E56" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="9">
+        <v>10</v>
+      </c>
+      <c r="G56" s="9">
+        <v>5</v>
+      </c>
       <c r="H56" s="9"/>
       <c r="I56" s="21">
         <v>5</v>
@@ -2595,7 +3229,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="4">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="8"/>
@@ -2605,14 +3239,18 @@
         <v>54</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" s="10">
         <v>30</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="9"/>
+      <c r="E57" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="9">
+        <v>20</v>
+      </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="21">
@@ -2623,7 +3261,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="8"/>
@@ -2633,15 +3271,21 @@
         <v>55</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="10">
         <v>30</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="E58" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="9">
+        <v>20</v>
+      </c>
+      <c r="G58" s="9">
+        <v>5</v>
+      </c>
       <c r="H58" s="9"/>
       <c r="I58" s="21">
         <v>10</v>
@@ -2651,7 +3295,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="8"/>
@@ -2661,14 +3305,16 @@
         <v>56</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="10">
         <v>30</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="22"/>
-      <c r="F59" s="9"/>
+      <c r="F59" s="9">
+        <v>0</v>
+      </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="21">
@@ -2695,8 +3341,12 @@
         <v>30</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="9"/>
+      <c r="E60" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="9">
+        <v>10</v>
+      </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="21"/>
@@ -2705,7 +3355,7 @@
       <c r="L60" s="9"/>
       <c r="M60" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="8"/>
@@ -2715,15 +3365,21 @@
         <v>58</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="10">
         <v>30</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="E61" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" s="9">
+        <v>10</v>
+      </c>
+      <c r="G61" s="9">
+        <v>5</v>
+      </c>
       <c r="H61" s="9"/>
       <c r="I61" s="21">
         <v>10</v>
@@ -2733,7 +3389,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="8"/>
@@ -2749,9 +3405,15 @@
         <v>30</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="E62" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" s="9">
+        <v>10</v>
+      </c>
+      <c r="G62" s="9">
+        <v>5</v>
+      </c>
       <c r="H62" s="9"/>
       <c r="I62" s="21">
         <v>5</v>
@@ -2761,7 +3423,7 @@
       <c r="L62" s="9"/>
       <c r="M62" s="4">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="8"/>
@@ -2777,8 +3439,12 @@
         <v>30</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="9"/>
+      <c r="E63" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="9">
+        <v>10</v>
+      </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="21"/>
@@ -2787,7 +3453,7 @@
       <c r="L63" s="9"/>
       <c r="M63" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="8"/>
@@ -2797,14 +3463,18 @@
         <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="10">
         <v>30</v>
       </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="9"/>
+      <c r="E64" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="9">
+        <v>10</v>
+      </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="21">
@@ -2815,7 +3485,7 @@
       <c r="L64" s="9"/>
       <c r="M64" s="4">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="8"/>
@@ -2831,9 +3501,15 @@
         <v>10</v>
       </c>
       <c r="D65" s="10"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="E65" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="9">
+        <v>25</v>
+      </c>
+      <c r="G65" s="9">
+        <v>5</v>
+      </c>
       <c r="H65" s="9"/>
       <c r="I65" s="21">
         <v>10</v>
@@ -2843,7 +3519,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2857,9 +3533,15 @@
         <v>10</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="E66" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="9">
+        <v>20</v>
+      </c>
+      <c r="G66" s="9">
+        <v>5</v>
+      </c>
       <c r="H66" s="9"/>
       <c r="I66" s="21"/>
       <c r="J66" s="9"/>
@@ -2867,7 +3549,7 @@
       <c r="L66" s="9"/>
       <c r="M66" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="8"/>
@@ -2883,9 +3565,15 @@
         <v>10</v>
       </c>
       <c r="D67" s="10"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="E67" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="9">
+        <v>20</v>
+      </c>
+      <c r="G67" s="9">
+        <v>5</v>
+      </c>
       <c r="H67" s="9"/>
       <c r="I67" s="21">
         <v>10</v>
@@ -2895,7 +3583,7 @@
       <c r="L67" s="9"/>
       <c r="M67" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="8"/>
@@ -2911,8 +3599,12 @@
         <v>10</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="9"/>
+      <c r="E68" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="9">
+        <v>10</v>
+      </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="21"/>
@@ -2920,8 +3612,8 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="4">
-        <f t="shared" ref="M68:M99" si="2">SUM(C68:L68)</f>
-        <v>10</v>
+        <f t="shared" ref="M68:M82" si="2">SUM(C68:L68)</f>
+        <v>20</v>
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="8"/>
@@ -2937,9 +3629,15 @@
         <v>10</v>
       </c>
       <c r="D69" s="10"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="E69" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" s="9">
+        <v>15</v>
+      </c>
+      <c r="G69" s="9">
+        <v>5</v>
+      </c>
       <c r="H69" s="9"/>
       <c r="I69" s="21">
         <v>10</v>
@@ -2949,7 +3647,7 @@
       <c r="L69" s="9"/>
       <c r="M69" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="8"/>
@@ -2959,15 +3657,21 @@
         <v>67</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="10">
         <v>10</v>
       </c>
       <c r="D70" s="10"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="E70" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="9">
+        <v>25</v>
+      </c>
+      <c r="G70" s="9">
+        <v>5</v>
+      </c>
       <c r="H70" s="9"/>
       <c r="I70" s="21"/>
       <c r="J70" s="9"/>
@@ -2975,7 +3679,7 @@
       <c r="L70" s="9"/>
       <c r="M70" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="8"/>
@@ -2985,15 +3689,21 @@
         <v>68</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="10">
         <v>0</v>
       </c>
       <c r="D71" s="10"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="E71" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" s="9">
+        <v>20</v>
+      </c>
+      <c r="G71" s="9">
+        <v>5</v>
+      </c>
       <c r="H71" s="9"/>
       <c r="I71" s="21"/>
       <c r="J71" s="9"/>
@@ -3001,7 +3711,7 @@
       <c r="L71" s="9"/>
       <c r="M71" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="8"/>
@@ -3017,8 +3727,12 @@
         <v>0</v>
       </c>
       <c r="D72" s="10"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="9"/>
+      <c r="E72" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="9">
+        <v>10</v>
+      </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="21"/>
@@ -3027,7 +3741,7 @@
       <c r="L72" s="9"/>
       <c r="M72" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="8"/>
@@ -3043,8 +3757,12 @@
         <v>0</v>
       </c>
       <c r="D73" s="10"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="9"/>
+      <c r="E73" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="9">
+        <v>10</v>
+      </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="21"/>
@@ -3053,7 +3771,7 @@
       <c r="L73" s="9"/>
       <c r="M73" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="8"/>
@@ -3063,14 +3781,18 @@
         <v>71</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="10">
         <v>0</v>
       </c>
       <c r="D74" s="10"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="9"/>
+      <c r="E74" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" s="9">
+        <v>20</v>
+      </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="21"/>
@@ -3079,7 +3801,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="8"/>
@@ -3089,14 +3811,18 @@
         <v>72</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" s="10">
         <v>0</v>
       </c>
       <c r="D75" s="10"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="9"/>
+      <c r="E75" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="9">
+        <v>10</v>
+      </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="21"/>
@@ -3105,7 +3831,7 @@
       <c r="L75" s="9"/>
       <c r="M75" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="8"/>
@@ -3115,15 +3841,21 @@
         <v>73</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
       </c>
       <c r="D76" s="10"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="E76" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="9">
+        <v>25</v>
+      </c>
+      <c r="G76" s="9">
+        <v>5</v>
+      </c>
       <c r="H76" s="9"/>
       <c r="I76" s="21">
         <v>10</v>
@@ -3133,24 +3865,28 @@
       <c r="L76" s="9"/>
       <c r="M76" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P76" s="7"/>
       <c r="Q76" s="8"/>
     </row>
     <row r="77" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="20">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
       </c>
       <c r="D77" s="10"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="9"/>
+      <c r="E77" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="21"/>
@@ -3161,22 +3897,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="20">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
       </c>
       <c r="D78" s="10"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="9"/>
+      <c r="E78" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F78" s="9">
+        <v>10</v>
+      </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="21"/>
@@ -3185,22 +3923,28 @@
       <c r="L78" s="9"/>
       <c r="M78" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="8"/>
     </row>
     <row r="79" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="20">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
       </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="9"/>
+      <c r="E79" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79" s="9">
+        <v>10</v>
+      </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="21"/>
@@ -3209,24 +3953,28 @@
       <c r="L79" s="9"/>
       <c r="M79" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="8"/>
     </row>
     <row r="80" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="20">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
       </c>
       <c r="D80" s="10"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="9"/>
+      <c r="E80" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" s="9">
+        <v>10</v>
+      </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="21"/>
@@ -3235,24 +3983,28 @@
       <c r="L80" s="9"/>
       <c r="M80" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P80" s="7"/>
       <c r="Q80" s="8"/>
     </row>
     <row r="81" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="20">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
       </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="9"/>
+      <c r="E81" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="9">
+        <v>10</v>
+      </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="21"/>
@@ -3261,14 +4013,14 @@
       <c r="L81" s="9"/>
       <c r="M81" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="8"/>
     </row>
     <row r="82" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="20">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>49</v>
@@ -3277,8 +4029,12 @@
         <v>0</v>
       </c>
       <c r="D82" s="10"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="9"/>
+      <c r="E82" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="9">
+        <v>10</v>
+      </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="21"/>
@@ -3287,39 +4043,16 @@
       <c r="L82" s="9"/>
       <c r="M82" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P82" s="7"/>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="20">
-        <v>80</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="10">
-        <v>0</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="8"/>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G85" s="27"/>
     </row>
   </sheetData>
-  <sortState ref="B3:M83">
+  <sortState ref="B3:M82">
     <sortCondition descending="1" ref="M4"/>
   </sortState>
   <dataConsolidate/>
@@ -3328,19 +4061,19 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F84:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F83:F1048576">
       <formula1>"25,20,15,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G42 I4:I66 G31:I83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G42 I4:I66 G31:I82">
       <formula1>"0,5,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C66 C31:D83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C66 C31:D82">
       <formula1>"50,30,10,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F82">
       <formula1>"50,25,20,15,10,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J82">
       <formula1>"10,15"</formula1>
     </dataValidation>
   </dataValidations>

--- a/media/files/2017/04/24/424.xlsx
+++ b/media/files/2017/04/24/424.xlsx
@@ -15,14 +15,14 @@
     <sheet name="4月24日周日" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月24日周日'!$B$2:$R$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月24日周日'!$B$2:$R$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
   <si>
     <r>
       <rPr>
@@ -78,7 +78,661 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>赵铁裆</t>
+    <t>快乐至上</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁头</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好学习天天向上</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐瓜瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 霸天哥、</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南猎鹰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR、领域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>反派</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼命微笑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫步威风</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老玉米</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国大叔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天廷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财猫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩一玩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之亿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风雨欲来花满楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>田螺公爵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen_Abigail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧十一郎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神气的香蕉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗版大熊</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风信子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪的汉子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥勒大帝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲壳虫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西楚霸王项羽自刎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉风的蟋蟀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李世民大帝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>低调</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫星</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴尔巴斯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星驻地球观察团</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王CY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>靖之国</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙、</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡闹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniCooPer_S</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：20分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：10分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：50分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打旗/建筑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：10分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞人/协防</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分：30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巅峰加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分30分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐斩</t>
+  </si>
+  <si>
+    <t>三枪九洞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之羽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的容颜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯粹realman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本周捐献荣誉值        </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代代的菜刀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一路闪电砍死你</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三璺鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王战</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领地</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘境</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂人正道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖菜刀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3K战队SWAT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙兄是也</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代代的唯依</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南故笙箫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任我行.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四哥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代代的肥猪，净坛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代代</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒不掉的味道</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈梓熙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代代的飞猪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MichaelJiang</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍得</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地上的脚印</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRM轻舞飞扬</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(&gt;_&lt;)110</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年4月24日-4月30日周末积分统计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.24巅峰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲良&lt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7349</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6363</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6194</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5945</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5735</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5473</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5171</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5028</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5009</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4912</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4879</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4773</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4028</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3812</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3408</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3185</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3174</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3140</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2973</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2957</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2942</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2896</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2883</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2744</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2741</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2679</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2675</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2610</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2553</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2474</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2464</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2339</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2322</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2297</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2265</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2191</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2155</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2077</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1981</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1978</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1850</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1830</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1828</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1748</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1680</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1668</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1579</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1574</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1413</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1278</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1197</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1095</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1066</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1039</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>985</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>984</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>970</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>865</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>833</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>790</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>735</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>615</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>615</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>570</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>542</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>510</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>335</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>293</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙飞刃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>280</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.30巅峰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣*战斗佛</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -86,673 +740,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>快乐至上</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁头</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>好好学习天天向上</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐瓜瓜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 霸天哥、</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>西南猎鹰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DR、领域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牛座</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>反派</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵铁锤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼命微笑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫步威风</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老玉米</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国大叔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天廷</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财猫</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩一玩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之亿</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>风雨欲来花满楼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>田螺公爵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen_Abigail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣*战斗佛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>萧十一郎</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神气的香蕉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗版大熊</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>风信子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>流浪的汉子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弥勒大帝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲壳虫</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>西楚霸王项羽自刎</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉风的蟋蟀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>李世民大帝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>低调</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫星</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴尔巴斯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>火星驻地球观察团</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>王CY</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>靖之国</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>青龙、</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡闹</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniCooPer_S</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：20分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：10分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：50分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>打旗/建筑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：10分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞人/协防</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分：30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>巅峰加速</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>满分30分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐斩</t>
-  </si>
-  <si>
-    <t>三枪九洞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之羽</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的容颜</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯粹realman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本周捐献荣誉值        </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代代的菜刀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一路闪电砍死你</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三璺鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>巅峰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>王战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>领地</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘境</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂人正道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖菜刀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3K战队SWAT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>云龙兄是也</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代代的唯依</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南故笙箫</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>任我行.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>四哥</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代代的肥猪，净坛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rotin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代代</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒不掉的味道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈梓熙</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代代的飞猪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MichaelJiang</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>舍得</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪地上的脚印</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRM轻舞飞扬</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>(&gt;_&lt;)110</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年4月24日-4月30日周末积分统计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.24巅峰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>仲良&lt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7349</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6363</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6194</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5945</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5735</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5521</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5473</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5171</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5028</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5009</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4912</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4879</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4773</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4028</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3812</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3408</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3185</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3174</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3140</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2973</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2957</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2942</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2896</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2883</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2744</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2741</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2679</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2675</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2610</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2553</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2474</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2464</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2339</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2322</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2297</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2265</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2191</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2155</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2077</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1981</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1978</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1850</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1830</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1828</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1748</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1680</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1668</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1579</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1574</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1413</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1278</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1197</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1120</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1095</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1066</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1039</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>985</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>984</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>970</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>954</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>865</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>833</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>790</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>735</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>615</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>615</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>570</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>542</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>510</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>335</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>293</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙飞刃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>280</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <t>代代姐的笨鸡蛋。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1088,6 +1080,9 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,9 +1090,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1426,20 +1418,20 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18"/>
-      <c r="B1" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
@@ -1447,34 +1439,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>1</v>
@@ -1486,34 +1478,34 @@
         <v>4</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>2</v>
@@ -1527,14 +1519,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10">
+        <v>50</v>
+      </c>
       <c r="E4" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4" s="9">
         <v>25</v>
@@ -1542,16 +1536,22 @@
       <c r="G4" s="9">
         <v>5</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
       <c r="I4" s="21">
         <v>10</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="9">
+        <v>60</v>
+      </c>
+      <c r="L4" s="9">
+        <v>30</v>
+      </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M35" si="0">SUM(C4:L4)</f>
-        <v>90</v>
+        <f>SUM(C4:L4)</f>
+        <v>240</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
@@ -1561,31 +1561,39 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10">
         <v>50</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10">
+        <v>50</v>
+      </c>
       <c r="E5" s="22" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F5" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="9">
         <v>5</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9">
+        <v>10</v>
+      </c>
       <c r="I5" s="21">
         <v>10</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="9">
+        <v>30</v>
+      </c>
+      <c r="L5" s="9">
+        <v>30</v>
+      </c>
       <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(C5:L5)</f>
+        <v>235</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
@@ -1595,14 +1603,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10">
         <v>50</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10">
+        <v>50</v>
+      </c>
       <c r="E6" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F6" s="9">
         <v>25</v>
@@ -1610,14 +1620,22 @@
       <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="9">
+        <v>10</v>
+      </c>
+      <c r="I6" s="21">
+        <v>10</v>
+      </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="9">
+        <v>30</v>
+      </c>
+      <c r="L6" s="9">
+        <v>30</v>
+      </c>
       <c r="M6" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C6:L6)</f>
+        <v>210</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
@@ -1627,29 +1645,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10">
         <v>50</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>50</v>
+      </c>
       <c r="E7" s="22" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F7" s="9">
-        <v>20</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>10</v>
+      </c>
       <c r="I7" s="21">
         <v>10</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>60</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C7:L7)</f>
+        <v>210</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
@@ -1659,29 +1685,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C8" s="10">
         <v>50</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>50</v>
+      </c>
       <c r="E8" s="22" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F8" s="9">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>10</v>
+      </c>
+      <c r="I8" s="21">
+        <v>10</v>
+      </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="9">
+        <v>30</v>
+      </c>
+      <c r="L8" s="9">
+        <v>30</v>
+      </c>
       <c r="M8" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>SUM(C8:L8)</f>
+        <v>200</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
@@ -1691,29 +1725,39 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10">
         <v>50</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10">
+        <v>50</v>
+      </c>
       <c r="E9" s="22" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F9" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="21">
+        <v>10</v>
+      </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="9">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9">
+        <v>30</v>
+      </c>
       <c r="M9" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C9:L9)</f>
+        <v>200</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
@@ -1723,14 +1767,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10">
         <v>50</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>50</v>
+      </c>
       <c r="E10" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="9">
         <v>50</v>
@@ -1738,7 +1784,9 @@
       <c r="G10" s="9">
         <v>5</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9">
+        <v>10</v>
+      </c>
       <c r="I10" s="21">
         <v>10</v>
       </c>
@@ -1746,8 +1794,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(C10:L10)</f>
+        <v>175</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
@@ -1757,29 +1805,35 @@
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10">
         <v>50</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10">
+        <v>50</v>
+      </c>
       <c r="E11" s="22" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F11" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G11" s="9">
         <v>5</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="21"/>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="21">
+        <v>10</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(C11:L11)</f>
+        <v>175</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
@@ -1789,31 +1843,35 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10">
         <v>50</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>50</v>
+      </c>
       <c r="E12" s="22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F12" s="9">
-        <v>50</v>
-      </c>
-      <c r="G12" s="9">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>10</v>
+      </c>
       <c r="I12" s="21">
         <v>10</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="K12" s="9">
+        <v>30</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(C12:L12)</f>
+        <v>175</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
@@ -1823,14 +1881,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C13" s="10">
         <v>50</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10">
+        <v>50</v>
+      </c>
       <c r="E13" s="22" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F13" s="9">
         <v>25</v>
@@ -1838,14 +1898,18 @@
       <c r="G13" s="9">
         <v>5</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9">
+        <v>10</v>
+      </c>
       <c r="I13" s="21"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9">
+        <v>30</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C13:L13)</f>
+        <v>170</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
@@ -1855,29 +1919,35 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C14" s="10">
         <v>50</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10">
+        <v>50</v>
+      </c>
       <c r="E14" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G14" s="9">
         <v>5</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9">
+        <v>10</v>
+      </c>
       <c r="I14" s="21"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="9">
+        <v>30</v>
+      </c>
       <c r="M14" s="4">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f>SUM(C14:L14)</f>
+        <v>170</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
@@ -1887,31 +1957,35 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C15" s="10">
         <v>50</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>50</v>
+      </c>
       <c r="E15" s="22" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F15" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G15" s="9">
         <v>5</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="21">
-        <v>10</v>
-      </c>
+      <c r="H15" s="9">
+        <v>10</v>
+      </c>
+      <c r="I15" s="21"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9">
+        <v>30</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="4">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(C15:L15)</f>
+        <v>170</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
@@ -1921,31 +1995,33 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C16" s="10">
         <v>50</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>50</v>
+      </c>
       <c r="E16" s="22" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="F16" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G16" s="9">
         <v>5</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="21">
-        <v>10</v>
-      </c>
+      <c r="H16" s="9">
+        <v>10</v>
+      </c>
+      <c r="I16" s="21"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C16:L16)</f>
+        <v>165</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
@@ -1955,31 +2031,35 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10">
         <v>50</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>50</v>
+      </c>
       <c r="E17" s="22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F17" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G17" s="9">
         <v>5</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="21">
-        <v>10</v>
-      </c>
+      <c r="H17" s="9">
+        <v>10</v>
+      </c>
+      <c r="I17" s="21"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="9">
+        <v>30</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C17:L17)</f>
+        <v>165</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
@@ -1989,31 +2069,33 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C18" s="10">
         <v>50</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>50</v>
+      </c>
       <c r="E18" s="22" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F18" s="9">
-        <v>25</v>
-      </c>
-      <c r="G18" s="9">
-        <v>5</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="21">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>10</v>
+      </c>
+      <c r="I18" s="21"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="9">
+        <v>30</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(C18:L18)</f>
+        <v>160</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
@@ -2023,14 +2105,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C19" s="10">
         <v>50</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10">
+        <v>50</v>
+      </c>
       <c r="E19" s="22" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F19" s="9">
         <v>10</v>
@@ -2038,14 +2122,18 @@
       <c r="G19" s="9">
         <v>5</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9">
+        <v>10</v>
+      </c>
       <c r="I19" s="21"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9">
+        <v>30</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f>SUM(C19:L19)</f>
+        <v>155</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
@@ -2055,29 +2143,35 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C20" s="10">
         <v>50</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10">
+        <v>50</v>
+      </c>
       <c r="E20" s="22" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="F20" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G20" s="9">
         <v>5</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="21"/>
+      <c r="H20" s="9">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>10</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f>SUM(C20:L20)</f>
+        <v>150</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
@@ -2087,14 +2181,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="10">
         <v>50</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10">
+        <v>50</v>
+      </c>
       <c r="E21" s="22" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F21" s="9">
         <v>25</v>
@@ -2102,7 +2198,9 @@
       <c r="G21" s="9">
         <v>5</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9">
+        <v>10</v>
+      </c>
       <c r="I21" s="21">
         <v>10</v>
       </c>
@@ -2110,8 +2208,8 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(C21:L21)</f>
+        <v>150</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
@@ -2121,29 +2219,35 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C22" s="10">
         <v>50</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>50</v>
+      </c>
       <c r="E22" s="22" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F22" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G22" s="9">
         <v>5</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="9">
+        <v>10</v>
+      </c>
+      <c r="I22" s="21">
+        <v>10</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(C22:L22)</f>
+        <v>150</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="8"/>
@@ -2153,22 +2257,26 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="10">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="9">
         <v>25</v>
       </c>
-      <c r="C23" s="10">
-        <v>50</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="9">
-        <v>20</v>
-      </c>
       <c r="G23" s="9">
         <v>5</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9">
+        <v>10</v>
+      </c>
       <c r="I23" s="21">
         <v>10</v>
       </c>
@@ -2176,8 +2284,8 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>SUM(C23:L23)</f>
+        <v>150</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
@@ -2187,14 +2295,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C24" s="10">
         <v>50</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>50</v>
+      </c>
       <c r="E24" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F24" s="9">
         <v>25</v>
@@ -2202,14 +2312,18 @@
       <c r="G24" s="9">
         <v>5</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="9">
+        <v>10</v>
+      </c>
+      <c r="I24" s="21">
+        <v>10</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C24:L24)</f>
+        <v>150</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
@@ -2219,31 +2333,33 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C25" s="10">
         <v>50</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>50</v>
+      </c>
       <c r="E25" s="22" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="F25" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9">
-        <v>5</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="21">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H25" s="9">
+        <v>10</v>
+      </c>
+      <c r="I25" s="21"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C25:L25)</f>
+        <v>145</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
@@ -2253,29 +2369,37 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C26" s="10">
         <v>50</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10">
+        <v>50</v>
+      </c>
       <c r="E26" s="22" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F26" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" s="9">
         <v>5</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="9">
+        <v>10</v>
+      </c>
+      <c r="I26" s="21">
+        <v>10</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="9">
+        <v>-5</v>
+      </c>
       <c r="M26" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(C26:L26)</f>
+        <v>145</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
@@ -2285,27 +2409,35 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C27" s="10">
         <v>50</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10">
+        <v>50</v>
+      </c>
       <c r="E27" s="22" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F27" s="9">
         <v>20</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="21"/>
+      <c r="G27" s="9">
+        <v>5</v>
+      </c>
+      <c r="H27" s="9">
+        <v>10</v>
+      </c>
+      <c r="I27" s="21">
+        <v>10</v>
+      </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="4">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>SUM(C27:L27)</f>
+        <v>145</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
@@ -2315,20 +2447,24 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C28" s="10">
         <v>50</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10">
+        <v>50</v>
+      </c>
       <c r="E28" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" s="9">
         <v>25</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9">
+        <v>10</v>
+      </c>
       <c r="I28" s="21">
         <v>10</v>
       </c>
@@ -2336,8 +2472,8 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>SUM(C28:L28)</f>
+        <v>145</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
@@ -2347,29 +2483,37 @@
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C29" s="10">
         <v>50</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10">
+        <v>50</v>
+      </c>
       <c r="E29" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" s="9">
         <v>25</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="9">
+        <v>5</v>
+      </c>
+      <c r="H29" s="9">
+        <v>10</v>
+      </c>
       <c r="I29" s="21">
         <v>10</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9">
+        <v>-5</v>
+      </c>
       <c r="M29" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>SUM(C29:L29)</f>
+        <v>145</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="8"/>
@@ -2379,29 +2523,33 @@
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C30" s="10">
         <v>50</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10">
+        <v>50</v>
+      </c>
       <c r="E30" s="22" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F30" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G30" s="9">
         <v>5</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9">
+        <v>10</v>
+      </c>
       <c r="I30" s="21"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(C30:L30)</f>
+        <v>140</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="8"/>
@@ -2411,14 +2559,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C31" s="10">
         <v>50</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>50</v>
+      </c>
       <c r="E31" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F31" s="9">
         <v>15</v>
@@ -2426,7 +2576,9 @@
       <c r="G31" s="9">
         <v>5</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9">
+        <v>10</v>
+      </c>
       <c r="I31" s="21">
         <v>10</v>
       </c>
@@ -2434,8 +2586,8 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(C31:L31)</f>
+        <v>140</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
@@ -2445,27 +2597,35 @@
         <v>29</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C32" s="10">
         <v>50</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
       <c r="E32" s="22" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F32" s="9">
-        <v>25</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="H32" s="9">
+        <v>10</v>
+      </c>
+      <c r="I32" s="21">
+        <v>10</v>
+      </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(C32:L32)</f>
+        <v>140</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="8"/>
@@ -2475,14 +2635,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C33" s="10">
         <v>50</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10">
+        <v>50</v>
+      </c>
       <c r="E33" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F33" s="9">
         <v>25</v>
@@ -2490,16 +2652,16 @@
       <c r="G33" s="9">
         <v>5</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="21">
-        <v>10</v>
-      </c>
+      <c r="H33" s="9">
+        <v>10</v>
+      </c>
+      <c r="I33" s="21"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(C33:L33)</f>
+        <v>140</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="8"/>
@@ -2509,31 +2671,33 @@
         <v>31</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C34" s="10">
         <v>50</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>50</v>
+      </c>
       <c r="E34" s="22" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F34" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G34" s="9">
         <v>5</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="21">
-        <v>10</v>
-      </c>
+      <c r="H34" s="9">
+        <v>10</v>
+      </c>
+      <c r="I34" s="21"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(C34:L34)</f>
+        <v>135</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="8"/>
@@ -2543,29 +2707,37 @@
         <v>32</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C35" s="10">
         <v>50</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10">
+        <v>50</v>
+      </c>
       <c r="E35" s="22" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F35" s="9">
         <v>15</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="9">
+        <v>5</v>
+      </c>
+      <c r="H35" s="9">
+        <v>10</v>
+      </c>
       <c r="I35" s="21">
         <v>10</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="L35" s="9">
+        <v>-5</v>
+      </c>
       <c r="M35" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(C35:L35)</f>
+        <v>135</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="8"/>
@@ -2575,29 +2747,33 @@
         <v>33</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C36" s="10">
         <v>50</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10">
+        <v>50</v>
+      </c>
       <c r="E36" s="22" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F36" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G36" s="9">
         <v>5</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9">
+        <v>10</v>
+      </c>
       <c r="I36" s="21"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="4">
-        <f t="shared" ref="M36:M67" si="1">SUM(C36:L36)</f>
-        <v>70</v>
+        <f>SUM(C36:L36)</f>
+        <v>135</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="8"/>
@@ -2607,29 +2783,31 @@
         <v>34</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C37" s="10">
         <v>50</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="10">
+        <v>50</v>
+      </c>
       <c r="E37" s="22" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F37" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="21">
-        <v>10</v>
-      </c>
+      <c r="H37" s="9">
+        <v>10</v>
+      </c>
+      <c r="I37" s="21"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>SUM(C37:L37)</f>
+        <v>135</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="8"/>
@@ -2639,27 +2817,33 @@
         <v>35</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C38" s="10">
         <v>50</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10">
+        <v>50</v>
+      </c>
       <c r="E38" s="22" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F38" s="9">
-        <v>10</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G38" s="9">
+        <v>5</v>
+      </c>
+      <c r="H38" s="9">
+        <v>10</v>
+      </c>
       <c r="I38" s="21"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(C38:L38)</f>
+        <v>130</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="8"/>
@@ -2669,27 +2853,33 @@
         <v>36</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C39" s="10">
         <v>50</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="10">
+        <v>50</v>
+      </c>
       <c r="E39" s="22" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F39" s="9">
         <v>10</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="21"/>
+      <c r="H39" s="9">
+        <v>10</v>
+      </c>
+      <c r="I39" s="21">
+        <v>10</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(C39:L39)</f>
+        <v>130</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="8"/>
@@ -2699,22 +2889,24 @@
         <v>37</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C40" s="10">
         <v>50</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="10">
+        <v>50</v>
+      </c>
       <c r="E40" s="22" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F40" s="9">
-        <v>25</v>
-      </c>
-      <c r="G40" s="9">
-        <v>5</v>
-      </c>
-      <c r="H40" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9">
+        <v>10</v>
+      </c>
       <c r="I40" s="21">
         <v>10</v>
       </c>
@@ -2722,8 +2914,8 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>SUM(C40:L40)</f>
+        <v>130</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="8"/>
@@ -2733,22 +2925,26 @@
         <v>38</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C41" s="10">
-        <v>50</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="D41" s="10">
+        <v>50</v>
+      </c>
       <c r="E41" s="22" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="F41" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G41" s="9">
         <v>5</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9">
+        <v>10</v>
+      </c>
       <c r="I41" s="21">
         <v>10</v>
       </c>
@@ -2756,8 +2952,8 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="4">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>SUM(C41:L41)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2765,29 +2961,33 @@
         <v>39</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C42" s="10">
         <v>50</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="10">
+        <v>50</v>
+      </c>
       <c r="E42" s="22" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="F42" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G42" s="9">
         <v>5</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9">
+        <v>10</v>
+      </c>
       <c r="I42" s="21"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="4">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>SUM(C42:L42)</f>
+        <v>125</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="8"/>
@@ -2797,31 +2997,33 @@
         <v>40</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C43" s="10">
-        <v>50</v>
-      </c>
-      <c r="D43" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="D43" s="10">
+        <v>30</v>
+      </c>
       <c r="E43" s="22" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F43" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G43" s="9">
         <v>5</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="21">
-        <v>10</v>
-      </c>
+      <c r="H43" s="9">
+        <v>10</v>
+      </c>
+      <c r="I43" s="21"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>SUM(C43:L43)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2829,22 +3031,26 @@
         <v>41</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C44" s="10">
-        <v>50</v>
-      </c>
-      <c r="D44" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="D44" s="10">
+        <v>50</v>
+      </c>
       <c r="E44" s="22" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F44" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G44" s="9">
         <v>5</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9">
+        <v>10</v>
+      </c>
       <c r="I44" s="21">
         <v>10</v>
       </c>
@@ -2852,8 +3058,8 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>SUM(C44:L44)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2861,31 +3067,31 @@
         <v>42</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C45" s="10">
         <v>50</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <v>50</v>
+      </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F45" s="9">
-        <v>25</v>
-      </c>
-      <c r="G45" s="9">
-        <v>5</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="21">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9">
+        <v>10</v>
+      </c>
+      <c r="I45" s="21"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>SUM(C45:L45)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2893,20 +3099,24 @@
         <v>43</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C46" s="10">
-        <v>50</v>
-      </c>
-      <c r="D46" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="D46" s="10">
+        <v>50</v>
+      </c>
       <c r="E46" s="22" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="F46" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9">
+        <v>10</v>
+      </c>
       <c r="I46" s="21">
         <v>10</v>
       </c>
@@ -2914,8 +3124,8 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>SUM(C46:L46)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2923,27 +3133,35 @@
         <v>44</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C47" s="10">
         <v>50</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10">
+        <v>30</v>
+      </c>
       <c r="E47" s="22" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F47" s="9">
         <v>10</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="21"/>
+      <c r="G47" s="9">
+        <v>5</v>
+      </c>
+      <c r="H47" s="9">
+        <v>10</v>
+      </c>
+      <c r="I47" s="21">
+        <v>10</v>
+      </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(C47:L47)</f>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2951,29 +3169,33 @@
         <v>45</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C48" s="10">
         <v>30</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="10">
+        <v>50</v>
+      </c>
       <c r="E48" s="22" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F48" s="9">
-        <v>25</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="21">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" s="9">
+        <v>5</v>
+      </c>
+      <c r="H48" s="9">
+        <v>10</v>
+      </c>
+      <c r="I48" s="21"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(C48:L48)</f>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -2981,14 +3203,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C49" s="10">
-        <v>30</v>
-      </c>
-      <c r="D49" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
+        <v>50</v>
+      </c>
       <c r="E49" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F49" s="9">
         <v>20</v>
@@ -2996,14 +3220,18 @@
       <c r="G49" s="9">
         <v>5</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9">
+        <v>10</v>
+      </c>
       <c r="I49" s="21"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="K49" s="9">
+        <v>30</v>
+      </c>
       <c r="L49" s="9"/>
       <c r="M49" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>SUM(C49:L49)</f>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3011,14 +3239,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C50" s="10">
         <v>30</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="10">
+        <v>50</v>
+      </c>
       <c r="E50" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F50" s="9">
         <v>10</v>
@@ -3026,16 +3256,18 @@
       <c r="G50" s="9">
         <v>5</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9">
+        <v>10</v>
+      </c>
       <c r="I50" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>SUM(C50:L50)</f>
+        <v>110</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="8"/>
@@ -3045,27 +3277,35 @@
         <v>48</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="C51" s="10">
-        <v>30</v>
-      </c>
-      <c r="D51" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="D51" s="10">
+        <v>50</v>
+      </c>
       <c r="E51" s="22" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="F51" s="9">
-        <v>10</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="G51" s="9">
+        <v>5</v>
+      </c>
+      <c r="H51" s="9">
+        <v>10</v>
+      </c>
+      <c r="I51" s="21">
+        <v>10</v>
+      </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUM(C51:L51)</f>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3073,22 +3313,24 @@
         <v>49</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C52" s="10">
         <v>30</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="10">
+        <v>50</v>
+      </c>
       <c r="E52" s="22" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F52" s="9">
-        <v>20</v>
-      </c>
-      <c r="G52" s="9">
-        <v>5</v>
-      </c>
-      <c r="H52" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
+        <v>10</v>
+      </c>
       <c r="I52" s="21">
         <v>5</v>
       </c>
@@ -3096,8 +3338,8 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(C52:L52)</f>
+        <v>105</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="8"/>
@@ -3107,29 +3349,35 @@
         <v>50</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C53" s="10">
-        <v>30</v>
-      </c>
-      <c r="D53" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="D53" s="10">
+        <v>50</v>
+      </c>
       <c r="E53" s="22" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F53" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G53" s="9">
         <v>5</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="21"/>
+      <c r="H53" s="9">
+        <v>10</v>
+      </c>
+      <c r="I53" s="21">
+        <v>10</v>
+      </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="4">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f>SUM(C53:L53)</f>
+        <v>105</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="8"/>
@@ -3139,29 +3387,35 @@
         <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C54" s="10">
         <v>30</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>30</v>
+      </c>
       <c r="E54" s="22" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F54" s="9">
-        <v>10</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G54" s="9">
+        <v>5</v>
+      </c>
+      <c r="H54" s="9">
+        <v>10</v>
+      </c>
       <c r="I54" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="4">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(C54:L54)</f>
+        <v>100</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="8"/>
@@ -3171,14 +3425,16 @@
         <v>52</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C55" s="10">
-        <v>30</v>
-      </c>
-      <c r="D55" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="10">
+        <v>50</v>
+      </c>
       <c r="E55" s="22" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F55" s="9">
         <v>25</v>
@@ -3186,7 +3442,9 @@
       <c r="G55" s="9">
         <v>5</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="9">
+        <v>10</v>
+      </c>
       <c r="I55" s="21">
         <v>10</v>
       </c>
@@ -3194,8 +3452,8 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>SUM(C55:L55)</f>
+        <v>100</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="8"/>
@@ -3205,14 +3463,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C56" s="10">
         <v>30</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="10">
+        <v>30</v>
+      </c>
       <c r="E56" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F56" s="9">
         <v>10</v>
@@ -3220,16 +3480,18 @@
       <c r="G56" s="9">
         <v>5</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="9">
+        <v>10</v>
+      </c>
       <c r="I56" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="4">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(C56:L56)</f>
+        <v>95</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="8"/>
@@ -3239,29 +3501,33 @@
         <v>54</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C57" s="10">
-        <v>30</v>
-      </c>
-      <c r="D57" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="D57" s="10">
+        <v>50</v>
+      </c>
       <c r="E57" s="22" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F57" s="9">
         <v>20</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="21">
-        <v>10</v>
-      </c>
+      <c r="G57" s="9">
+        <v>5</v>
+      </c>
+      <c r="H57" s="9">
+        <v>10</v>
+      </c>
+      <c r="I57" s="21"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(C57:L57)</f>
+        <v>95</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="8"/>
@@ -3271,31 +3537,37 @@
         <v>55</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C58" s="10">
         <v>30</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="10">
+        <v>30</v>
+      </c>
       <c r="E58" s="22" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F58" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="9">
         <v>5</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="9">
+        <v>10</v>
+      </c>
       <c r="I58" s="21">
         <v>10</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="L58" s="9">
+        <v>-5</v>
+      </c>
       <c r="M58" s="4">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f>SUM(C58:L58)</f>
+        <v>90</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="8"/>
@@ -3305,27 +3577,33 @@
         <v>56</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C59" s="10">
         <v>30</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="22"/>
+      <c r="D59" s="10">
+        <v>30</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="F59" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="9">
+        <v>10</v>
+      </c>
       <c r="I59" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f>SUM(C59:L59)</f>
+        <v>90</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="8"/>
@@ -3335,27 +3613,35 @@
         <v>57</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C60" s="10">
         <v>30</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10">
+        <v>30</v>
+      </c>
       <c r="E60" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F60" s="9">
         <v>10</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="21"/>
+      <c r="G60" s="9">
+        <v>5</v>
+      </c>
+      <c r="H60" s="9">
+        <v>10</v>
+      </c>
+      <c r="I60" s="21">
+        <v>5</v>
+      </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUM(C60:L60)</f>
+        <v>90</v>
       </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="8"/>
@@ -3365,31 +3651,31 @@
         <v>58</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C61" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="22" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F61" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="9">
         <v>5</v>
       </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="21">
-        <v>10</v>
-      </c>
+      <c r="H61" s="9">
+        <v>10</v>
+      </c>
+      <c r="I61" s="21"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>SUM(C61:L61)</f>
+        <v>85</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="8"/>
@@ -3399,31 +3685,31 @@
         <v>59</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C62" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="22" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="F62" s="9">
-        <v>10</v>
-      </c>
-      <c r="G62" s="9">
-        <v>5</v>
-      </c>
-      <c r="H62" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9">
+        <v>10</v>
+      </c>
       <c r="I62" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="4">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(C62:L62)</f>
+        <v>85</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="8"/>
@@ -3433,27 +3719,35 @@
         <v>60</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C63" s="10">
-        <v>30</v>
-      </c>
-      <c r="D63" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="D63" s="10">
+        <v>30</v>
+      </c>
       <c r="E63" s="22" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="F63" s="9">
-        <v>10</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="G63" s="9">
+        <v>5</v>
+      </c>
+      <c r="H63" s="9">
+        <v>10</v>
+      </c>
+      <c r="I63" s="21">
+        <v>10</v>
+      </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUM(C63:L63)</f>
+        <v>80</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="8"/>
@@ -3463,29 +3757,33 @@
         <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C64" s="10">
         <v>30</v>
       </c>
-      <c r="D64" s="10"/>
+      <c r="D64" s="10">
+        <v>30</v>
+      </c>
       <c r="E64" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F64" s="9">
         <v>10</v>
       </c>
       <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="21">
-        <v>5</v>
-      </c>
+      <c r="H64" s="9">
+        <v>10</v>
+      </c>
+      <c r="I64" s="21"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
+      <c r="L64" s="9">
+        <v>-5</v>
+      </c>
       <c r="M64" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f>SUM(C64:L64)</f>
+        <v>75</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="8"/>
@@ -3495,14 +3793,16 @@
         <v>62</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C65" s="10">
         <v>10</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="10">
+        <v>30</v>
+      </c>
       <c r="E65" s="22" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F65" s="9">
         <v>25</v>
@@ -3510,16 +3810,18 @@
       <c r="G65" s="9">
         <v>5</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="21">
-        <v>10</v>
-      </c>
+      <c r="H65" s="9">
+        <v>10</v>
+      </c>
+      <c r="I65" s="21"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
+      <c r="L65" s="9">
+        <v>-5</v>
+      </c>
       <c r="M65" s="4">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(C65:L65)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3527,29 +3829,29 @@
         <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C66" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F66" s="9">
-        <v>20</v>
-      </c>
-      <c r="G66" s="9">
-        <v>5</v>
-      </c>
-      <c r="H66" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9">
+        <v>10</v>
+      </c>
       <c r="I66" s="21"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f>SUM(C66:L66)</f>
+        <v>70</v>
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="8"/>
@@ -3559,31 +3861,29 @@
         <v>64</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C67" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="22" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="F67" s="9">
-        <v>20</v>
-      </c>
-      <c r="G67" s="9">
-        <v>5</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="21">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9">
+        <v>10</v>
+      </c>
+      <c r="I67" s="21"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f>SUM(C67:L67)</f>
+        <v>70</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="8"/>
@@ -3593,27 +3893,31 @@
         <v>65</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C68" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="22" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="F68" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="21"/>
+      <c r="H68" s="9">
+        <v>10</v>
+      </c>
+      <c r="I68" s="21">
+        <v>5</v>
+      </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="4">
-        <f t="shared" ref="M68:M82" si="2">SUM(C68:L68)</f>
-        <v>20</v>
+        <f>SUM(C68:L68)</f>
+        <v>70</v>
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="8"/>
@@ -3623,31 +3927,33 @@
         <v>66</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C69" s="10">
-        <v>10</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="22" t="s">
-        <v>150</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D69" s="10">
+        <v>30</v>
+      </c>
+      <c r="E69" s="22"/>
       <c r="F69" s="9">
-        <v>15</v>
-      </c>
-      <c r="G69" s="9">
-        <v>5</v>
-      </c>
-      <c r="H69" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9">
+        <v>10</v>
+      </c>
       <c r="I69" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
+      <c r="L69" s="9">
+        <v>-5</v>
+      </c>
       <c r="M69" s="4">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f>SUM(C69:L69)</f>
+        <v>70</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="8"/>
@@ -3657,29 +3963,31 @@
         <v>67</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C70" s="10">
-        <v>10</v>
-      </c>
-      <c r="D70" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="10">
+        <v>50</v>
+      </c>
       <c r="E70" s="22" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="F70" s="9">
-        <v>25</v>
-      </c>
-      <c r="G70" s="9">
-        <v>5</v>
-      </c>
-      <c r="H70" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9">
+        <v>10</v>
+      </c>
       <c r="I70" s="21"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="4">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f>SUM(C70:L70)</f>
+        <v>70</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="8"/>
@@ -3689,29 +3997,31 @@
         <v>68</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C71" s="10">
         <v>0</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10">
+        <v>50</v>
+      </c>
       <c r="E71" s="22" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F71" s="9">
-        <v>20</v>
-      </c>
-      <c r="G71" s="9">
-        <v>5</v>
-      </c>
-      <c r="H71" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9">
+        <v>10</v>
+      </c>
       <c r="I71" s="21"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="4">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>SUM(C71:L71)</f>
+        <v>70</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="8"/>
@@ -3721,27 +4031,29 @@
         <v>69</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C72" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="22" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F72" s="9">
         <v>10</v>
       </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="9">
+        <v>10</v>
+      </c>
       <c r="I72" s="21"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUM(C72:L72)</f>
+        <v>50</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="8"/>
@@ -3751,27 +4063,29 @@
         <v>70</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C73" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F73" s="9">
         <v>10</v>
       </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="9">
+        <v>10</v>
+      </c>
       <c r="I73" s="21"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUM(C73:L73)</f>
+        <v>50</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="8"/>
@@ -3781,27 +4095,31 @@
         <v>71</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C74" s="10">
         <v>0</v>
       </c>
-      <c r="D74" s="10"/>
+      <c r="D74" s="10">
+        <v>30</v>
+      </c>
       <c r="E74" s="22" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="F74" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="9">
+        <v>10</v>
+      </c>
       <c r="I74" s="21"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>SUM(C74:L74)</f>
+        <v>50</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="8"/>
@@ -3811,27 +4129,29 @@
         <v>72</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C75" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F75" s="9">
         <v>10</v>
       </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="9">
+        <v>10</v>
+      </c>
       <c r="I75" s="21"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUM(C75:L75)</f>
+        <v>30</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="8"/>
@@ -3841,118 +4161,122 @@
         <v>73</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="22" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F76" s="9">
-        <v>25</v>
-      </c>
-      <c r="G76" s="9">
-        <v>5</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="21">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9">
+        <v>10</v>
+      </c>
+      <c r="I76" s="21"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="4">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="8"/>
+        <f>SUM(C76:L76)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="77" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="20">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="22" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="F77" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="9">
+        <v>10</v>
+      </c>
       <c r="I77" s="21"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUM(C77:L77)</f>
+        <v>20</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="8"/>
     </row>
     <row r="78" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="20">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F78" s="9">
         <v>10</v>
       </c>
       <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="9">
+        <v>10</v>
+      </c>
       <c r="I78" s="21"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUM(C78:L78)</f>
+        <v>20</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="8"/>
     </row>
     <row r="79" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="20">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F79" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="9">
+        <v>10</v>
+      </c>
       <c r="I79" s="21"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(C79:L79)</f>
         <v>10</v>
       </c>
       <c r="P79" s="7"/>
@@ -3960,29 +4284,31 @@
     </row>
     <row r="80" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="20">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F80" s="9">
         <v>10</v>
       </c>
       <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="9">
+        <v>0</v>
+      </c>
       <c r="I80" s="21"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(C80:L80)</f>
         <v>10</v>
       </c>
       <c r="P80" s="7"/>
@@ -3990,69 +4316,41 @@
     </row>
     <row r="81" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="20">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="22" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F81" s="9">
         <v>10</v>
       </c>
       <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
       <c r="I81" s="21"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(C81:L81)</f>
         <v>10</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="20">
-        <v>80</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="10">
-        <v>0</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F82" s="9">
-        <v>10</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="8"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="G85" s="27"/>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G84" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="B3:M82">
+  <sortState ref="A3:M81">
     <sortCondition descending="1" ref="M4"/>
   </sortState>
   <dataConsolidate/>
@@ -4061,19 +4359,19 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F83:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F82:F1048576">
       <formula1>"25,20,15,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G42 I4:I66 G31:I82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G42 I4:I66 H4:H72 G31:I81">
       <formula1>"0,5,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C66 C31:D82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C66 D4:D72 C31:D81">
       <formula1>"50,30,10,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F81">
       <formula1>"50,25,20,15,10,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J81">
       <formula1>"10,15"</formula1>
     </dataValidation>
   </dataValidations>

--- a/media/files/2017/04/24/424.xlsx
+++ b/media/files/2017/04/24/424.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="178">
   <si>
     <r>
       <rPr>
@@ -745,6 +745,10 @@
   </si>
   <si>
     <t>代代姐的笨鸡蛋。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1934</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1399,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:M81"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M81" sqref="A1:M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1767,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C10" s="10">
         <v>50</v>
@@ -1776,10 +1780,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F10" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G10" s="9">
         <v>5</v>
@@ -1791,11 +1795,13 @@
         <v>10</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9">
+        <v>30</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="4">
         <f>SUM(C10:L10)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
@@ -1805,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C11" s="10">
         <v>50</v>
@@ -1814,10 +1820,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="F11" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G11" s="9">
         <v>5</v>
@@ -1829,11 +1835,13 @@
         <v>10</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9">
+        <v>30</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="4">
         <f>SUM(C11:L11)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
@@ -1843,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10">
         <v>50</v>
@@ -1852,12 +1860,14 @@
         <v>50</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F12" s="9">
-        <v>25</v>
-      </c>
-      <c r="G12" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
       <c r="H12" s="9">
         <v>10</v>
       </c>
@@ -1865,9 +1875,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="9">
-        <v>30</v>
-      </c>
+      <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="4">
         <f>SUM(C12:L12)</f>
@@ -1881,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10">
         <v>50</v>
@@ -1890,10 +1898,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F13" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9">
         <v>5</v>
@@ -1901,15 +1909,15 @@
       <c r="H13" s="9">
         <v>10</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <v>10</v>
+      </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="9">
-        <v>30</v>
-      </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="4">
         <f>SUM(C13:L13)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
@@ -1919,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="C14" s="10">
         <v>50</v>
@@ -1928,26 +1936,26 @@
         <v>50</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F14" s="9">
         <v>25</v>
       </c>
-      <c r="G14" s="9">
-        <v>5</v>
-      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="9">
         <v>10</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="21">
+        <v>10</v>
+      </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
-        <v>30</v>
-      </c>
+      <c r="K14" s="9">
+        <v>30</v>
+      </c>
+      <c r="L14" s="9"/>
       <c r="M14" s="4">
         <f>SUM(C14:L14)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
@@ -1957,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="10">
         <v>50</v>
@@ -1966,7 +1974,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F15" s="9">
         <v>25</v>
@@ -1979,10 +1987,10 @@
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9">
-        <v>30</v>
-      </c>
-      <c r="L15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9">
+        <v>30</v>
+      </c>
       <c r="M15" s="4">
         <f>SUM(C15:L15)</f>
         <v>170</v>
@@ -1995,19 +2003,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10">
         <v>50</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="F16" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G16" s="9">
         <v>5</v>
@@ -2015,13 +2023,17 @@
       <c r="H16" s="9">
         <v>10</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <v>5</v>
+      </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9">
+        <v>60</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="4">
         <f>SUM(C16:L16)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
@@ -2031,7 +2043,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10">
         <v>50</v>
@@ -2040,10 +2052,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="F17" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G17" s="9">
         <v>5</v>
@@ -2053,9 +2065,7 @@
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9">
-        <v>30</v>
-      </c>
+      <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="4">
         <f>SUM(C17:L17)</f>
@@ -2069,7 +2079,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" s="10">
         <v>50</v>
@@ -2078,12 +2088,14 @@
         <v>50</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="9">
         <v>20</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
       <c r="H18" s="9">
         <v>10</v>
       </c>
@@ -2095,7 +2107,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="4">
         <f>SUM(C18:L18)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
@@ -2105,7 +2117,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C19" s="10">
         <v>50</v>
@@ -2114,14 +2126,12 @@
         <v>50</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F19" s="9">
-        <v>10</v>
-      </c>
-      <c r="G19" s="9">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="9">
         <v>10</v>
       </c>
@@ -2133,7 +2143,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="4">
         <f>SUM(C19:L19)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
@@ -2143,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10">
         <v>50</v>
@@ -2152,10 +2162,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="F20" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G20" s="9">
         <v>5</v>
@@ -2163,15 +2173,15 @@
       <c r="H20" s="9">
         <v>10</v>
       </c>
-      <c r="I20" s="21">
-        <v>10</v>
-      </c>
+      <c r="I20" s="21"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9">
+        <v>30</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="4">
         <f>SUM(C20:L20)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
@@ -2181,7 +2191,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C21" s="10">
         <v>50</v>
@@ -2190,7 +2200,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F21" s="9">
         <v>25</v>
@@ -2219,7 +2229,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C22" s="10">
         <v>50</v>
@@ -2228,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F22" s="9">
         <v>25</v>
@@ -2257,7 +2267,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C23" s="10">
         <v>50</v>
@@ -2266,7 +2276,7 @@
         <v>50</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F23" s="9">
         <v>25</v>
@@ -2295,7 +2305,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" s="10">
         <v>50</v>
@@ -2304,7 +2314,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F24" s="9">
         <v>25</v>
@@ -2333,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C25" s="10">
         <v>50</v>
@@ -2342,24 +2352,26 @@
         <v>50</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F25" s="9">
         <v>25</v>
       </c>
       <c r="G25" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H25" s="9">
         <v>10</v>
       </c>
-      <c r="I25" s="21"/>
+      <c r="I25" s="21">
+        <v>10</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="4">
         <f>SUM(C25:L25)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
@@ -2369,7 +2381,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10">
         <v>50</v>
@@ -2378,25 +2390,21 @@
         <v>50</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="F26" s="9">
         <v>25</v>
       </c>
       <c r="G26" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H26" s="9">
         <v>10</v>
       </c>
-      <c r="I26" s="21">
-        <v>10</v>
-      </c>
+      <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9">
-        <v>-5</v>
-      </c>
+      <c r="L26" s="9"/>
       <c r="M26" s="4">
         <f>SUM(C26:L26)</f>
         <v>145</v>
@@ -2409,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C27" s="10">
         <v>50</v>
@@ -2418,10 +2426,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="F27" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G27" s="9">
         <v>5</v>
@@ -2434,7 +2442,9 @@
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9">
+        <v>-5</v>
+      </c>
       <c r="M27" s="4">
         <f>SUM(C27:L27)</f>
         <v>145</v>
@@ -2447,7 +2457,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="10">
         <v>50</v>
@@ -2456,12 +2466,14 @@
         <v>50</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F28" s="9">
-        <v>25</v>
-      </c>
-      <c r="G28" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G28" s="9">
+        <v>5</v>
+      </c>
       <c r="H28" s="9">
         <v>10</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29" s="10">
         <v>50</v>
@@ -2492,14 +2504,12 @@
         <v>50</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F29" s="9">
         <v>25</v>
       </c>
-      <c r="G29" s="9">
-        <v>5</v>
-      </c>
+      <c r="G29" s="9"/>
       <c r="H29" s="9">
         <v>10</v>
       </c>
@@ -2508,9 +2518,7 @@
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="9">
-        <v>-5</v>
-      </c>
+      <c r="L29" s="9"/>
       <c r="M29" s="4">
         <f>SUM(C29:L29)</f>
         <v>145</v>
@@ -2523,7 +2531,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="10">
         <v>50</v>
@@ -2532,7 +2540,7 @@
         <v>50</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F30" s="9">
         <v>25</v>
@@ -2543,13 +2551,17 @@
       <c r="H30" s="9">
         <v>10</v>
       </c>
-      <c r="I30" s="21"/>
+      <c r="I30" s="21">
+        <v>10</v>
+      </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="9">
+        <v>-5</v>
+      </c>
       <c r="M30" s="4">
         <f>SUM(C30:L30)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="8"/>
@@ -2559,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C31" s="10">
         <v>50</v>
@@ -2568,10 +2580,10 @@
         <v>50</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="F31" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G31" s="9">
         <v>5</v>
@@ -2579,9 +2591,7 @@
       <c r="H31" s="9">
         <v>10</v>
       </c>
-      <c r="I31" s="21">
-        <v>10</v>
-      </c>
+      <c r="I31" s="21"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -2597,7 +2607,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C32" s="10">
         <v>50</v>
@@ -2606,7 +2616,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F32" s="9">
         <v>15</v>
@@ -2635,7 +2645,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" s="10">
         <v>50</v>
@@ -2644,10 +2654,10 @@
         <v>50</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F33" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G33" s="9">
         <v>5</v>
@@ -2655,7 +2665,9 @@
       <c r="H33" s="9">
         <v>10</v>
       </c>
-      <c r="I33" s="21"/>
+      <c r="I33" s="21">
+        <v>10</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -2671,7 +2683,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C34" s="10">
         <v>50</v>
@@ -2680,10 +2692,10 @@
         <v>50</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F34" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G34" s="9">
         <v>5</v>
@@ -2697,7 +2709,7 @@
       <c r="L34" s="9"/>
       <c r="M34" s="4">
         <f>SUM(C34:L34)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="8"/>
@@ -2707,7 +2719,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C35" s="10">
         <v>50</v>
@@ -2716,10 +2728,10 @@
         <v>50</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F35" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G35" s="9">
         <v>5</v>
@@ -2728,16 +2740,14 @@
         <v>10</v>
       </c>
       <c r="I35" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="9">
-        <v>-5</v>
-      </c>
+      <c r="L35" s="9"/>
       <c r="M35" s="4">
         <f>SUM(C35:L35)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="8"/>
@@ -2747,7 +2757,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C36" s="10">
         <v>50</v>
@@ -2756,10 +2766,10 @@
         <v>50</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F36" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G36" s="9">
         <v>5</v>
@@ -2767,10 +2777,14 @@
       <c r="H36" s="9">
         <v>10</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="21">
+        <v>10</v>
+      </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="L36" s="9">
+        <v>-5</v>
+      </c>
       <c r="M36" s="4">
         <f>SUM(C36:L36)</f>
         <v>135</v>
@@ -2783,7 +2797,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C37" s="10">
         <v>50</v>
@@ -2792,12 +2806,14 @@
         <v>50</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F37" s="9">
-        <v>25</v>
-      </c>
-      <c r="G37" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G37" s="9">
+        <v>5</v>
+      </c>
       <c r="H37" s="9">
         <v>10</v>
       </c>
@@ -2817,7 +2833,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C38" s="10">
         <v>50</v>
@@ -2826,14 +2842,12 @@
         <v>50</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F38" s="9">
-        <v>15</v>
-      </c>
-      <c r="G38" s="9">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G38" s="9"/>
       <c r="H38" s="9">
         <v>10</v>
       </c>
@@ -2843,7 +2857,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="4">
         <f>SUM(C38:L38)</f>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="8"/>
@@ -2853,7 +2867,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C39" s="10">
         <v>50</v>
@@ -2862,12 +2876,14 @@
         <v>50</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F39" s="9">
         <v>10</v>
       </c>
-      <c r="G39" s="9"/>
+      <c r="G39" s="9">
+        <v>5</v>
+      </c>
       <c r="H39" s="9">
         <v>10</v>
       </c>
@@ -2879,7 +2895,7 @@
       <c r="L39" s="9"/>
       <c r="M39" s="4">
         <f>SUM(C39:L39)</f>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="8"/>
@@ -2889,7 +2905,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C40" s="10">
         <v>50</v>
@@ -2898,18 +2914,18 @@
         <v>50</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F40" s="9">
-        <v>10</v>
-      </c>
-      <c r="G40" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5</v>
+      </c>
       <c r="H40" s="9">
         <v>10</v>
       </c>
-      <c r="I40" s="21">
-        <v>10</v>
-      </c>
+      <c r="I40" s="21"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -2925,23 +2941,21 @@
         <v>38</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C41" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D41" s="10">
         <v>50</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F41" s="9">
-        <v>25</v>
-      </c>
-      <c r="G41" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G41" s="9"/>
       <c r="H41" s="9">
         <v>10</v>
       </c>
@@ -2961,7 +2975,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C42" s="10">
         <v>50</v>
@@ -2970,24 +2984,24 @@
         <v>50</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F42" s="9">
         <v>10</v>
       </c>
-      <c r="G42" s="9">
-        <v>5</v>
-      </c>
+      <c r="G42" s="9"/>
       <c r="H42" s="9">
         <v>10</v>
       </c>
-      <c r="I42" s="21"/>
+      <c r="I42" s="21">
+        <v>10</v>
+      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="4">
         <f>SUM(C42:L42)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="8"/>
@@ -2997,19 +3011,19 @@
         <v>40</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C43" s="10">
         <v>30</v>
       </c>
       <c r="D43" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F43" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G43" s="9">
         <v>5</v>
@@ -3017,13 +3031,15 @@
       <c r="H43" s="9">
         <v>10</v>
       </c>
-      <c r="I43" s="21"/>
+      <c r="I43" s="21">
+        <v>10</v>
+      </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
         <f>SUM(C43:L43)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3031,19 +3047,19 @@
         <v>41</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C44" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D44" s="10">
         <v>50</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="F44" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G44" s="9">
         <v>5</v>
@@ -3051,9 +3067,7 @@
       <c r="H44" s="9">
         <v>10</v>
       </c>
-      <c r="I44" s="21">
-        <v>10</v>
-      </c>
+      <c r="I44" s="21"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -3067,21 +3081,23 @@
         <v>42</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C45" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D45" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="F45" s="9">
-        <v>10</v>
-      </c>
-      <c r="G45" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="G45" s="9">
+        <v>5</v>
+      </c>
       <c r="H45" s="9">
         <v>10</v>
       </c>
@@ -3091,7 +3107,7 @@
       <c r="L45" s="9"/>
       <c r="M45" s="4">
         <f>SUM(C45:L45)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3099,7 +3115,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C46" s="10">
         <v>30</v>
@@ -3108,12 +3124,14 @@
         <v>50</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F46" s="9">
         <v>20</v>
       </c>
-      <c r="G46" s="9"/>
+      <c r="G46" s="9">
+        <v>5</v>
+      </c>
       <c r="H46" s="9">
         <v>10</v>
       </c>
@@ -3125,7 +3143,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="4">
         <f>SUM(C46:L46)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3133,35 +3151,31 @@
         <v>44</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C47" s="10">
         <v>50</v>
       </c>
       <c r="D47" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F47" s="9">
         <v>10</v>
       </c>
-      <c r="G47" s="9">
-        <v>5</v>
-      </c>
+      <c r="G47" s="9"/>
       <c r="H47" s="9">
         <v>10</v>
       </c>
-      <c r="I47" s="21">
-        <v>10</v>
-      </c>
+      <c r="I47" s="21"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="4">
         <f>SUM(C47:L47)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3169,7 +3183,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C48" s="10">
         <v>30</v>
@@ -3178,24 +3192,24 @@
         <v>50</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F48" s="9">
         <v>20</v>
       </c>
-      <c r="G48" s="9">
-        <v>5</v>
-      </c>
+      <c r="G48" s="9"/>
       <c r="H48" s="9">
         <v>10</v>
       </c>
-      <c r="I48" s="21"/>
+      <c r="I48" s="21">
+        <v>10</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
         <f>SUM(C48:L48)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3203,19 +3217,19 @@
         <v>46</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C49" s="10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D49" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F49" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G49" s="9">
         <v>5</v>
@@ -3223,11 +3237,11 @@
       <c r="H49" s="9">
         <v>10</v>
       </c>
-      <c r="I49" s="21"/>
+      <c r="I49" s="21">
+        <v>10</v>
+      </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="9">
-        <v>30</v>
-      </c>
+      <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="4">
         <f>SUM(C49:L49)</f>
@@ -3239,7 +3253,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C50" s="10">
         <v>30</v>
@@ -3248,10 +3262,10 @@
         <v>50</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F50" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G50" s="9">
         <v>5</v>
@@ -3259,15 +3273,13 @@
       <c r="H50" s="9">
         <v>10</v>
       </c>
-      <c r="I50" s="21">
-        <v>5</v>
-      </c>
+      <c r="I50" s="21"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="4">
         <f>SUM(C50:L50)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="8"/>
@@ -3277,19 +3289,19 @@
         <v>48</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="C51" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D51" s="10">
         <v>50</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F51" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G51" s="9">
         <v>5</v>
@@ -3297,15 +3309,15 @@
       <c r="H51" s="9">
         <v>10</v>
       </c>
-      <c r="I51" s="21">
-        <v>10</v>
-      </c>
+      <c r="I51" s="21"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="K51" s="9">
+        <v>30</v>
+      </c>
       <c r="L51" s="9"/>
       <c r="M51" s="4">
         <f>SUM(C51:L51)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
@@ -3313,33 +3325,35 @@
         <v>49</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="C52" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D52" s="10">
         <v>50</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="F52" s="9">
-        <v>10</v>
-      </c>
-      <c r="G52" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="G52" s="9">
+        <v>5</v>
+      </c>
       <c r="H52" s="9">
         <v>10</v>
       </c>
       <c r="I52" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="4">
         <f>SUM(C52:L52)</f>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="8"/>
@@ -3349,28 +3363,26 @@
         <v>50</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C53" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D53" s="10">
         <v>50</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F53" s="9">
-        <v>20</v>
-      </c>
-      <c r="G53" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G53" s="9"/>
       <c r="H53" s="9">
         <v>10</v>
       </c>
       <c r="I53" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3387,16 +3399,16 @@
         <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C54" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D54" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F54" s="9">
         <v>20</v>
@@ -3408,14 +3420,14 @@
         <v>10</v>
       </c>
       <c r="I54" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="4">
         <f>SUM(C54:L54)</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="8"/>
@@ -3425,19 +3437,19 @@
         <v>52</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C55" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D55" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F55" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G55" s="9">
         <v>5</v>
@@ -3446,7 +3458,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -3463,19 +3475,19 @@
         <v>53</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C56" s="10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D56" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F56" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G56" s="9">
         <v>5</v>
@@ -3491,7 +3503,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="4">
         <f>SUM(C56:L56)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="8"/>
@@ -3651,31 +3663,35 @@
         <v>58</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C61" s="10">
-        <v>50</v>
-      </c>
-      <c r="D61" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="D61" s="10">
+        <v>30</v>
+      </c>
       <c r="E61" s="22" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="F61" s="9">
         <v>20</v>
       </c>
-      <c r="G61" s="9">
-        <v>5</v>
-      </c>
+      <c r="G61" s="9"/>
       <c r="H61" s="9">
         <v>10</v>
       </c>
-      <c r="I61" s="21"/>
+      <c r="I61" s="21">
+        <v>5</v>
+      </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+      <c r="L61" s="9">
+        <v>-5</v>
+      </c>
       <c r="M61" s="4">
         <f>SUM(C61:L61)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="8"/>
@@ -3685,25 +3701,25 @@
         <v>59</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C62" s="10">
         <v>50</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F62" s="9">
-        <v>15</v>
-      </c>
-      <c r="G62" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G62" s="9">
+        <v>5</v>
+      </c>
       <c r="H62" s="9">
         <v>10</v>
       </c>
-      <c r="I62" s="21">
-        <v>10</v>
-      </c>
+      <c r="I62" s="21"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3719,23 +3735,19 @@
         <v>60</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C63" s="10">
-        <v>10</v>
-      </c>
-      <c r="D63" s="10">
-        <v>30</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D63" s="10"/>
       <c r="E63" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F63" s="9">
         <v>15</v>
       </c>
-      <c r="G63" s="9">
-        <v>5</v>
-      </c>
+      <c r="G63" s="9"/>
       <c r="H63" s="9">
         <v>10</v>
       </c>
@@ -3747,7 +3759,7 @@
       <c r="L63" s="9"/>
       <c r="M63" s="4">
         <f>SUM(C63:L63)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="8"/>
@@ -3757,33 +3769,35 @@
         <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C64" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D64" s="10">
         <v>30</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F64" s="9">
-        <v>10</v>
-      </c>
-      <c r="G64" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G64" s="9">
+        <v>5</v>
+      </c>
       <c r="H64" s="9">
         <v>10</v>
       </c>
-      <c r="I64" s="21"/>
+      <c r="I64" s="21">
+        <v>10</v>
+      </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="9">
-        <v>-5</v>
-      </c>
+      <c r="L64" s="9"/>
       <c r="M64" s="4">
         <f>SUM(C64:L64)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="8"/>
@@ -3793,23 +3807,21 @@
         <v>62</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C65" s="10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D65" s="10">
         <v>30</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="F65" s="9">
-        <v>25</v>
-      </c>
-      <c r="G65" s="9">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G65" s="9"/>
       <c r="H65" s="9">
         <v>10</v>
       </c>
@@ -3829,29 +3841,35 @@
         <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C66" s="10">
-        <v>50</v>
-      </c>
-      <c r="D66" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="D66" s="10">
+        <v>30</v>
+      </c>
       <c r="E66" s="22" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F66" s="9">
-        <v>10</v>
-      </c>
-      <c r="G66" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="G66" s="9">
+        <v>5</v>
+      </c>
       <c r="H66" s="9">
         <v>10</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="L66" s="9">
+        <v>-5</v>
+      </c>
       <c r="M66" s="4">
         <f>SUM(C66:L66)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="8"/>
@@ -3861,14 +3879,14 @@
         <v>64</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C67" s="10">
         <v>50</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="22" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F67" s="9">
         <v>10</v>
@@ -3893,25 +3911,23 @@
         <v>65</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C68" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="22" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="F68" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9">
         <v>10</v>
       </c>
-      <c r="I68" s="21">
-        <v>5</v>
-      </c>
+      <c r="I68" s="21"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -3927,17 +3943,17 @@
         <v>66</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C69" s="10">
         <v>30</v>
       </c>
-      <c r="D69" s="10">
-        <v>30</v>
-      </c>
-      <c r="E69" s="22"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="F69" s="9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9">
@@ -3948,9 +3964,7 @@
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
-      <c r="L69" s="9">
-        <v>-5</v>
-      </c>
+      <c r="L69" s="9"/>
       <c r="M69" s="4">
         <f>SUM(C69:L69)</f>
         <v>70</v>
@@ -4350,7 +4364,7 @@
       <c r="G84" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="A3:M81">
+  <sortState ref="B3:M81">
     <sortCondition descending="1" ref="M4"/>
   </sortState>
   <dataConsolidate/>
